--- a/paper-steps/model_speed.xlsx
+++ b/paper-steps/model_speed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PycharmProjects\HITSZ-lab\TIR-Tracking\paper-steps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CE8283-692C-49BE-BD1C-13BDC7B7A715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE0C905-C1C6-4A5E-BC06-FCF8E7D7C6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9398" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>pixel-a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +48,26 @@
   </si>
   <si>
     <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel4b-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel3b-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel2b-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel1b-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,15 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D0EF3-266A-4CC2-97D2-B09C76BCB23F}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="9" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +456,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>AVERAGE(A3:A56)</f>
         <v>53.551851851851865</v>
@@ -442,15 +482,35 @@
         <v>62.414814814814818</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D2" si="0">AVERAGE(C3:C56)</f>
+        <f t="shared" ref="C2:I2" si="0">AVERAGE(C3:C56)</f>
         <v>62.275925925925947</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
         <v>69.311111111111103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>64.412962962962936</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>66.43148148148147</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>68.40555555555558</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(H3:H56)</f>
+        <v>70.28333333333336</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>72.459259259259255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>55</v>
       </c>
@@ -463,8 +523,23 @@
       <c r="D3">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>66.5</v>
+      </c>
+      <c r="F3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I3">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>55.2</v>
       </c>
@@ -477,8 +552,23 @@
       <c r="D4">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>66.2</v>
+      </c>
+      <c r="F4">
+        <v>67.8</v>
+      </c>
+      <c r="G4">
+        <v>67.2</v>
+      </c>
+      <c r="H4">
+        <v>70.2</v>
+      </c>
+      <c r="I4">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>55.6</v>
       </c>
@@ -491,8 +581,23 @@
       <c r="D5">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>69</v>
+      </c>
+      <c r="G5">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H5">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I5">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>56.5</v>
       </c>
@@ -505,8 +610,23 @@
       <c r="D6">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>67.3</v>
+      </c>
+      <c r="F6">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G6">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H6">
+        <v>73.8</v>
+      </c>
+      <c r="I6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>54.8</v>
       </c>
@@ -519,8 +639,23 @@
       <c r="D7">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>66.2</v>
+      </c>
+      <c r="F7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G7">
+        <v>70.2</v>
+      </c>
+      <c r="H7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I7">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>55.4</v>
       </c>
@@ -533,8 +668,23 @@
       <c r="D8">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>66.3</v>
+      </c>
+      <c r="F8">
+        <v>68.7</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I8">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>39.700000000000003</v>
       </c>
@@ -547,8 +697,23 @@
       <c r="D9">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>46.5</v>
+      </c>
+      <c r="F9">
+        <v>48.3</v>
+      </c>
+      <c r="G9">
+        <v>62.4</v>
+      </c>
+      <c r="H9">
+        <v>61.9</v>
+      </c>
+      <c r="I9">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>45.8</v>
       </c>
@@ -561,8 +726,23 @@
       <c r="D10">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>53.9</v>
+      </c>
+      <c r="F10">
+        <v>57.9</v>
+      </c>
+      <c r="G10">
+        <v>56.9</v>
+      </c>
+      <c r="H10">
+        <v>58.6</v>
+      </c>
+      <c r="I10">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>45.5</v>
       </c>
@@ -575,8 +755,23 @@
       <c r="D11">
         <v>58.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>56.3</v>
+      </c>
+      <c r="F11">
+        <v>60.6</v>
+      </c>
+      <c r="G11">
+        <v>61.2</v>
+      </c>
+      <c r="H11">
+        <v>55.5</v>
+      </c>
+      <c r="I11">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>55.7</v>
       </c>
@@ -589,8 +784,23 @@
       <c r="D12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>64.8</v>
+      </c>
+      <c r="F12">
+        <v>70.5</v>
+      </c>
+      <c r="G12">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H12">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="I12">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>54.8</v>
       </c>
@@ -603,8 +813,23 @@
       <c r="D13">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>65.3</v>
+      </c>
+      <c r="F13">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G13">
+        <v>70.2</v>
+      </c>
+      <c r="H13">
+        <v>71.8</v>
+      </c>
+      <c r="I13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>55</v>
       </c>
@@ -617,8 +842,23 @@
       <c r="D14">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>65.2</v>
+      </c>
+      <c r="F14">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G14">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H14">
+        <v>71.8</v>
+      </c>
+      <c r="I14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>52.9</v>
       </c>
@@ -631,8 +871,23 @@
       <c r="D15">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G15">
+        <v>70.5</v>
+      </c>
+      <c r="H15">
+        <v>71.2</v>
+      </c>
+      <c r="I15">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>52.1</v>
       </c>
@@ -645,8 +900,23 @@
       <c r="D16">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>67.3</v>
+      </c>
+      <c r="G16">
+        <v>69.8</v>
+      </c>
+      <c r="H16">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="I16">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>54.8</v>
       </c>
@@ -659,8 +929,23 @@
       <c r="D17">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>63.9</v>
+      </c>
+      <c r="F17">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>71.3</v>
+      </c>
+      <c r="H17">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I17">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>52.8</v>
       </c>
@@ -673,8 +958,23 @@
       <c r="D18">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>61.7</v>
+      </c>
+      <c r="F18">
+        <v>66.2</v>
+      </c>
+      <c r="G18">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H18">
+        <v>70.2</v>
+      </c>
+      <c r="I18">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>58.3</v>
       </c>
@@ -687,8 +987,23 @@
       <c r="D19">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>67.2</v>
+      </c>
+      <c r="F19">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G19">
+        <v>70.7</v>
+      </c>
+      <c r="H19">
+        <v>72.2</v>
+      </c>
+      <c r="I19">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>70.8</v>
       </c>
@@ -701,8 +1016,23 @@
       <c r="D20">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F20">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G20">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H20">
+        <v>81.5</v>
+      </c>
+      <c r="I20">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>56.1</v>
       </c>
@@ -715,8 +1045,23 @@
       <c r="D21">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F21">
+        <v>67.5</v>
+      </c>
+      <c r="G21">
+        <v>68.7</v>
+      </c>
+      <c r="H21">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I21">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>54.1</v>
       </c>
@@ -729,8 +1074,23 @@
       <c r="D22">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>66.2</v>
+      </c>
+      <c r="F22">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G22">
+        <v>68.5</v>
+      </c>
+      <c r="H22">
+        <v>70.8</v>
+      </c>
+      <c r="I22">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>53.8</v>
       </c>
@@ -743,8 +1103,23 @@
       <c r="D23">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>66.2</v>
+      </c>
+      <c r="F23">
+        <v>66.2</v>
+      </c>
+      <c r="G23">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H23">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I23">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>53.4</v>
       </c>
@@ -757,8 +1132,23 @@
       <c r="D24">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G24">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H24">
+        <v>70.2</v>
+      </c>
+      <c r="I24">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>52.6</v>
       </c>
@@ -771,8 +1161,23 @@
       <c r="D25">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F25">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G25">
+        <v>67.3</v>
+      </c>
+      <c r="H25">
+        <v>69.2</v>
+      </c>
+      <c r="I25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>51.2</v>
       </c>
@@ -785,8 +1190,23 @@
       <c r="D26">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>62.3</v>
+      </c>
+      <c r="F26">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G26">
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <v>68.7</v>
+      </c>
+      <c r="I26">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>53.2</v>
       </c>
@@ -799,8 +1219,23 @@
       <c r="D27">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>63.6</v>
+      </c>
+      <c r="F27">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G27">
+        <v>67.7</v>
+      </c>
+      <c r="H27">
+        <v>69.2</v>
+      </c>
+      <c r="I27">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>54.5</v>
       </c>
@@ -813,8 +1248,23 @@
       <c r="D28">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H28">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="I28">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>53.8</v>
       </c>
@@ -827,8 +1277,23 @@
       <c r="D29">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>65.2</v>
+      </c>
+      <c r="F29">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G29">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H29">
+        <v>69.3</v>
+      </c>
+      <c r="I29">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>53.2</v>
       </c>
@@ -841,8 +1306,23 @@
       <c r="D30">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>65.8</v>
+      </c>
+      <c r="F30">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G30">
+        <v>67.5</v>
+      </c>
+      <c r="H30">
+        <v>69.5</v>
+      </c>
+      <c r="I30">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>53.8</v>
       </c>
@@ -855,8 +1335,23 @@
       <c r="D31">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>65.5</v>
+      </c>
+      <c r="F31">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="G31">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H31">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="I31">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>52.6</v>
       </c>
@@ -869,8 +1364,23 @@
       <c r="D32">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>65.3</v>
+      </c>
+      <c r="F32">
+        <v>65.2</v>
+      </c>
+      <c r="G32">
+        <v>66.8</v>
+      </c>
+      <c r="H32">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I32">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>52</v>
       </c>
@@ -883,8 +1393,23 @@
       <c r="D33">
         <v>68.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>69.2</v>
+      </c>
+      <c r="H33">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I33">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>50.7</v>
       </c>
@@ -897,8 +1422,23 @@
       <c r="D34">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F34">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G34">
+        <v>66.2</v>
+      </c>
+      <c r="H34">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I34">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>52.4</v>
       </c>
@@ -911,8 +1451,23 @@
       <c r="D35">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>64.5</v>
+      </c>
+      <c r="F35">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G35">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H35">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="I35">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>50.5</v>
       </c>
@@ -925,8 +1480,23 @@
       <c r="D36">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>59.3</v>
+      </c>
+      <c r="F36">
+        <v>63.6</v>
+      </c>
+      <c r="G36">
+        <v>64.3</v>
+      </c>
+      <c r="H36">
+        <v>65.8</v>
+      </c>
+      <c r="I36">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>51.1</v>
       </c>
@@ -939,8 +1509,23 @@
       <c r="D37">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>60.2</v>
+      </c>
+      <c r="F37">
+        <v>63.3</v>
+      </c>
+      <c r="G37">
+        <v>65.5</v>
+      </c>
+      <c r="H37">
+        <v>67.3</v>
+      </c>
+      <c r="I37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>53.4</v>
       </c>
@@ -953,8 +1538,23 @@
       <c r="D38">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>63.9</v>
+      </c>
+      <c r="F38">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G38">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="H38">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="I38">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>53.4</v>
       </c>
@@ -967,8 +1567,23 @@
       <c r="D39">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>64.2</v>
+      </c>
+      <c r="F39">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G39">
+        <v>66.3</v>
+      </c>
+      <c r="H39">
+        <v>69.2</v>
+      </c>
+      <c r="I39">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>48.9</v>
       </c>
@@ -981,8 +1596,23 @@
       <c r="D40">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>60.2</v>
+      </c>
+      <c r="F40">
+        <v>60.7</v>
+      </c>
+      <c r="G40">
+        <v>62.3</v>
+      </c>
+      <c r="H40">
+        <v>68.5</v>
+      </c>
+      <c r="I40">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>51.8</v>
       </c>
@@ -995,8 +1625,23 @@
       <c r="D41">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G41">
+        <v>67.3</v>
+      </c>
+      <c r="H41">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I41">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>52.6</v>
       </c>
@@ -1009,8 +1654,23 @@
       <c r="D42">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>63.7</v>
+      </c>
+      <c r="F42">
+        <v>66.5</v>
+      </c>
+      <c r="G42">
+        <v>69.8</v>
+      </c>
+      <c r="H42">
+        <v>69.7</v>
+      </c>
+      <c r="I42">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>54.1</v>
       </c>
@@ -1023,8 +1683,23 @@
       <c r="D43">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>63.7</v>
+      </c>
+      <c r="F43">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G43">
+        <v>67.8</v>
+      </c>
+      <c r="H43">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>51.5</v>
       </c>
@@ -1037,8 +1712,23 @@
       <c r="D44">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F44">
+        <v>66.3</v>
+      </c>
+      <c r="G44">
+        <v>67.8</v>
+      </c>
+      <c r="H44">
+        <v>69.8</v>
+      </c>
+      <c r="I44">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>63.1</v>
       </c>
@@ -1051,8 +1741,23 @@
       <c r="D45">
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F45">
+        <v>76</v>
+      </c>
+      <c r="G45">
+        <v>78.3</v>
+      </c>
+      <c r="H45">
+        <v>85.8</v>
+      </c>
+      <c r="I45">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>60</v>
       </c>
@@ -1065,8 +1770,23 @@
       <c r="D46">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>68.7</v>
+      </c>
+      <c r="F46">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G46">
+        <v>76.2</v>
+      </c>
+      <c r="H46">
+        <v>82.4</v>
+      </c>
+      <c r="I46">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>52.8</v>
       </c>
@@ -1079,8 +1799,23 @@
       <c r="D47">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>63.6</v>
+      </c>
+      <c r="F47">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G47">
+        <v>65.5</v>
+      </c>
+      <c r="H47">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I47">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>54.3</v>
       </c>
@@ -1093,8 +1828,23 @@
       <c r="D48">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F48">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G48">
+        <v>71</v>
+      </c>
+      <c r="H48">
+        <v>72.3</v>
+      </c>
+      <c r="I48">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>54.9</v>
       </c>
@@ -1107,8 +1857,23 @@
       <c r="D49">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>65</v>
+      </c>
+      <c r="F49">
+        <v>67.8</v>
+      </c>
+      <c r="G49">
+        <v>70.5</v>
+      </c>
+      <c r="H49">
+        <v>73.3</v>
+      </c>
+      <c r="I49">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>59.1</v>
       </c>
@@ -1121,8 +1886,23 @@
       <c r="D50">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <v>72.5</v>
+      </c>
+      <c r="F50">
+        <v>72</v>
+      </c>
+      <c r="G50">
+        <v>74.5</v>
+      </c>
+      <c r="H50">
+        <v>71.7</v>
+      </c>
+      <c r="I50">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50.4</v>
       </c>
@@ -1135,8 +1915,23 @@
       <c r="D51">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <v>61.7</v>
+      </c>
+      <c r="F51">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G51">
+        <v>66.5</v>
+      </c>
+      <c r="H51">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="I51">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50.9</v>
       </c>
@@ -1149,8 +1944,23 @@
       <c r="D52">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <v>60.7</v>
+      </c>
+      <c r="F52">
+        <v>63.5</v>
+      </c>
+      <c r="G52">
+        <v>64.8</v>
+      </c>
+      <c r="H52">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="I52">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51.3</v>
       </c>
@@ -1163,8 +1973,23 @@
       <c r="D53">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F53">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G53">
+        <v>67.5</v>
+      </c>
+      <c r="H53">
+        <v>74.8</v>
+      </c>
+      <c r="I53">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1177,8 +2002,23 @@
       <c r="D54">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <v>62.3</v>
+      </c>
+      <c r="F54">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G54">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H54">
+        <v>73</v>
+      </c>
+      <c r="I54">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53.3</v>
       </c>
@@ -1191,8 +2031,23 @@
       <c r="D55">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <v>62.6</v>
+      </c>
+      <c r="F55">
+        <v>66.5</v>
+      </c>
+      <c r="G55">
+        <v>68.2</v>
+      </c>
+      <c r="H55">
+        <v>69.5</v>
+      </c>
+      <c r="I55">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>53.3</v>
       </c>
@@ -1204,6 +2059,21 @@
       </c>
       <c r="D56">
         <v>71.599999999999994</v>
+      </c>
+      <c r="E56">
+        <v>66.5</v>
+      </c>
+      <c r="F56">
+        <v>66.5</v>
+      </c>
+      <c r="G56">
+        <v>68.3</v>
+      </c>
+      <c r="H56">
+        <v>69.3</v>
+      </c>
+      <c r="I56">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/paper-steps/model_speed.xlsx
+++ b/paper-steps/model_speed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PycharmProjects\HITSZ-lab\TIR-Tracking\paper-steps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kehanlin/PycharmProjects/HITSZ-lab/TIR-Tracking/paper-steps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE0C905-C1C6-4A5E-BC06-FCF8E7D7C6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F83592-395A-F940-810B-7E7E64E6F2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9398" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
+    <workbookView xWindow="5740" yWindow="840" windowWidth="16200" windowHeight="9400" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>pixel-a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,12 +70,20 @@
     <t>pixel1b-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pixel1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,18 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D0EF3-266A-4CC2-97D2-B09C76BCB23F}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +479,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <f>AVERAGE(A3:A56)</f>
         <v>53.551851851851865</v>
@@ -509,8 +523,16 @@
         <f t="shared" si="0"/>
         <v>72.459259259259255</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <f>AVERAGE(J3:J55)</f>
+        <v>70.945283018867926</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(K3:K55)</f>
+        <v>72.105660377358504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>55</v>
       </c>
@@ -538,8 +560,14 @@
       <c r="I3">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>73.5</v>
+      </c>
+      <c r="K3">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>55.2</v>
       </c>
@@ -567,8 +595,14 @@
       <c r="I4">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="K4">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>55.6</v>
       </c>
@@ -596,8 +630,14 @@
       <c r="I5">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>75.5</v>
+      </c>
+      <c r="K5">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>56.5</v>
       </c>
@@ -625,8 +665,14 @@
       <c r="I6">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K6">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>54.8</v>
       </c>
@@ -654,8 +700,14 @@
       <c r="I7">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="K7">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>55.4</v>
       </c>
@@ -683,8 +735,14 @@
       <c r="I8">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K8">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>39.700000000000003</v>
       </c>
@@ -712,8 +770,14 @@
       <c r="I9">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>53.5</v>
+      </c>
+      <c r="K9">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>45.8</v>
       </c>
@@ -741,8 +805,14 @@
       <c r="I10">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>63.3</v>
+      </c>
+      <c r="K10">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>45.5</v>
       </c>
@@ -770,8 +840,14 @@
       <c r="I11">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>63.5</v>
+      </c>
+      <c r="K11">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>55.7</v>
       </c>
@@ -799,8 +875,14 @@
       <c r="I12">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K12">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>54.8</v>
       </c>
@@ -828,8 +910,14 @@
       <c r="I13">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="K13">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>55</v>
       </c>
@@ -857,8 +945,14 @@
       <c r="I14">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="K14">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>52.9</v>
       </c>
@@ -886,8 +980,14 @@
       <c r="I15">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>72.2</v>
+      </c>
+      <c r="K15">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>52.1</v>
       </c>
@@ -915,8 +1015,14 @@
       <c r="I16">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="K16">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>54.8</v>
       </c>
@@ -944,8 +1050,14 @@
       <c r="I17">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>73.7</v>
+      </c>
+      <c r="K17">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>52.8</v>
       </c>
@@ -973,8 +1085,14 @@
       <c r="I18">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>70.8</v>
+      </c>
+      <c r="K18">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>58.3</v>
       </c>
@@ -1002,8 +1120,14 @@
       <c r="I19">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="K19">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>70.8</v>
       </c>
@@ -1031,8 +1155,14 @@
       <c r="I20">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>82.3</v>
+      </c>
+      <c r="K20">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>56.1</v>
       </c>
@@ -1060,8 +1190,14 @@
       <c r="I21">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="K21">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>54.1</v>
       </c>
@@ -1089,8 +1225,14 @@
       <c r="I22">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>71</v>
+      </c>
+      <c r="K22">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>53.8</v>
       </c>
@@ -1118,8 +1260,14 @@
       <c r="I23">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23">
+        <v>71.2</v>
+      </c>
+      <c r="K23">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>53.4</v>
       </c>
@@ -1147,8 +1295,14 @@
       <c r="I24">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K24">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>52.6</v>
       </c>
@@ -1176,8 +1330,14 @@
       <c r="I25">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="K25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>51.2</v>
       </c>
@@ -1205,8 +1365,14 @@
       <c r="I26">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26">
+        <v>68.8</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>53.2</v>
       </c>
@@ -1234,8 +1400,14 @@
       <c r="I27">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27">
+        <v>69.5</v>
+      </c>
+      <c r="K27">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>54.5</v>
       </c>
@@ -1263,8 +1435,14 @@
       <c r="I28">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K28">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>53.8</v>
       </c>
@@ -1292,8 +1470,14 @@
       <c r="I29">
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K29">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>53.2</v>
       </c>
@@ -1321,8 +1505,14 @@
       <c r="I30">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30">
+        <v>70.2</v>
+      </c>
+      <c r="K30">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>53.8</v>
       </c>
@@ -1350,8 +1540,14 @@
       <c r="I31">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31">
+        <v>69.8</v>
+      </c>
+      <c r="K31">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>52.6</v>
       </c>
@@ -1379,8 +1575,14 @@
       <c r="I32">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K32">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>52</v>
       </c>
@@ -1408,8 +1610,14 @@
       <c r="I33">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>50.7</v>
       </c>
@@ -1437,8 +1645,14 @@
       <c r="I34">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34">
+        <v>74.8</v>
+      </c>
+      <c r="K34">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>52.4</v>
       </c>
@@ -1466,8 +1680,14 @@
       <c r="I35">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35">
+        <v>69.8</v>
+      </c>
+      <c r="K35">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>50.5</v>
       </c>
@@ -1495,8 +1715,14 @@
       <c r="I36">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K36">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>51.1</v>
       </c>
@@ -1524,8 +1750,14 @@
       <c r="I37">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37">
+        <v>67.8</v>
+      </c>
+      <c r="K37">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>53.4</v>
       </c>
@@ -1553,8 +1785,14 @@
       <c r="I38">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>53.4</v>
       </c>
@@ -1582,8 +1820,14 @@
       <c r="I39">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39">
+        <v>69.3</v>
+      </c>
+      <c r="K39">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>48.9</v>
       </c>
@@ -1611,8 +1855,14 @@
       <c r="I40">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J40">
+        <v>62.9</v>
+      </c>
+      <c r="K40">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>51.8</v>
       </c>
@@ -1640,8 +1890,14 @@
       <c r="I41">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J41">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K41">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>52.6</v>
       </c>
@@ -1669,8 +1925,14 @@
       <c r="I42">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42">
+        <v>68.8</v>
+      </c>
+      <c r="K42">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>54.1</v>
       </c>
@@ -1698,8 +1960,14 @@
       <c r="I43">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43">
+        <v>71.5</v>
+      </c>
+      <c r="K43">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>51.5</v>
       </c>
@@ -1727,8 +1995,14 @@
       <c r="I44">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44">
+        <v>69.2</v>
+      </c>
+      <c r="K44">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>63.1</v>
       </c>
@@ -1756,8 +2030,14 @@
       <c r="I45">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K45">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>60</v>
       </c>
@@ -1785,8 +2065,14 @@
       <c r="I46">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46">
+        <v>82</v>
+      </c>
+      <c r="K46">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>52.8</v>
       </c>
@@ -1814,8 +2100,14 @@
       <c r="I47">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47">
+        <v>68.5</v>
+      </c>
+      <c r="K47">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>54.3</v>
       </c>
@@ -1843,8 +2135,14 @@
       <c r="I48">
         <v>74.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48">
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>54.9</v>
       </c>
@@ -1872,8 +2170,14 @@
       <c r="I49">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J49">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="K49">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>59.1</v>
       </c>
@@ -1901,8 +2205,14 @@
       <c r="I50">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K50">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50.4</v>
       </c>
@@ -1930,8 +2240,14 @@
       <c r="I51">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="K51">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>50.9</v>
       </c>
@@ -1959,8 +2275,14 @@
       <c r="I52">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52">
+        <v>67.8</v>
+      </c>
+      <c r="K52">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>51.3</v>
       </c>
@@ -1988,8 +2310,14 @@
       <c r="I53">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K53">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2017,8 +2345,14 @@
       <c r="I54">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54">
+        <v>69.7</v>
+      </c>
+      <c r="K54">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>53.3</v>
       </c>
@@ -2046,8 +2380,14 @@
       <c r="I55">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K55">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>53.3</v>
       </c>
@@ -2074,11 +2414,20 @@
       </c>
       <c r="I56">
         <v>72</v>
+      </c>
+      <c r="J56">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K56">
+        <v>71.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2:K2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/paper-steps/model_speed.xlsx
+++ b/paper-steps/model_speed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kehanlin/PycharmProjects/HITSZ-lab/TIR-Tracking/paper-steps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F83592-395A-F940-810B-7E7E64E6F2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF82CC-C743-7B42-AD64-13927E2C1172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="840" windowWidth="16200" windowHeight="9400" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
+    <workbookView xWindow="2300" yWindow="460" windowWidth="19660" windowHeight="12900" xr2:uid="{178A6B8A-898F-44D7-9AD1-268158DC2A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>pixel-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pixel-b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pixel-ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>original</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +64,18 @@
   </si>
   <si>
     <t>pixel-3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-2b-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-2b-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-2b-ap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,47 +443,48 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="3" width="10" customWidth="1"/>
     <col min="6" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -525,11 +526,11 @@
       </c>
       <c r="J2">
         <f>AVERAGE(J3:J55)</f>
-        <v>70.945283018867926</v>
+        <v>72.169811320754732</v>
       </c>
       <c r="K2">
         <f>AVERAGE(K3:K55)</f>
-        <v>72.105660377358504</v>
+        <v>67.918867924528328</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -561,10 +562,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="J3">
-        <v>73.5</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K3">
-        <v>73.900000000000006</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -596,10 +597,10 @@
         <v>75.400000000000006</v>
       </c>
       <c r="J4">
-        <v>74.900000000000006</v>
+        <v>75.2</v>
       </c>
       <c r="K4">
-        <v>75.099999999999994</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -631,10 +632,10 @@
         <v>76.099999999999994</v>
       </c>
       <c r="J5">
-        <v>75.5</v>
+        <v>75.8</v>
       </c>
       <c r="K5">
-        <v>75.5</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -666,10 +667,10 @@
         <v>76</v>
       </c>
       <c r="J6">
-        <v>77.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="K6">
-        <v>77.7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -701,10 +702,10 @@
         <v>73.8</v>
       </c>
       <c r="J7">
-        <v>73.599999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="K7">
-        <v>74.2</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -736,10 +737,10 @@
         <v>74.8</v>
       </c>
       <c r="J8">
-        <v>74.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="K8">
-        <v>74.8</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -771,10 +772,10 @@
         <v>52.3</v>
       </c>
       <c r="J9">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="K9">
-        <v>53.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -806,10 +807,10 @@
         <v>62.7</v>
       </c>
       <c r="J10">
-        <v>63.3</v>
+        <v>63.6</v>
       </c>
       <c r="K10">
-        <v>63.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -841,10 +842,10 @@
         <v>62.5</v>
       </c>
       <c r="J11">
-        <v>63.5</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="K11">
-        <v>64.099999999999994</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -876,10 +877,10 @@
         <v>75.2</v>
       </c>
       <c r="J12">
-        <v>76.900000000000006</v>
+        <v>76.7</v>
       </c>
       <c r="K12">
-        <v>76.599999999999994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -911,10 +912,10 @@
         <v>74</v>
       </c>
       <c r="J13">
-        <v>73.599999999999994</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="K13">
-        <v>74.099999999999994</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -946,10 +947,10 @@
         <v>74</v>
       </c>
       <c r="J14">
-        <v>73.099999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K14">
-        <v>74.099999999999994</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -981,10 +982,10 @@
         <v>73.8</v>
       </c>
       <c r="J15">
-        <v>72.2</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K15">
-        <v>73.599999999999994</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1016,10 +1017,10 @@
         <v>73.900000000000006</v>
       </c>
       <c r="J16">
-        <v>71.599999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="K16">
-        <v>73.5</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1051,10 +1052,10 @@
         <v>75.099999999999994</v>
       </c>
       <c r="J17">
-        <v>73.7</v>
+        <v>75.3</v>
       </c>
       <c r="K17">
-        <v>75.7</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1086,10 +1087,10 @@
         <v>71.8</v>
       </c>
       <c r="J18">
-        <v>70.8</v>
+        <v>72.2</v>
       </c>
       <c r="K18">
-        <v>72.400000000000006</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1121,10 +1122,10 @@
         <v>73.8</v>
       </c>
       <c r="J19">
-        <v>72.099999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="K19">
-        <v>74.2</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1156,10 +1157,10 @@
         <v>92.5</v>
       </c>
       <c r="J20">
-        <v>82.3</v>
+        <v>84.1</v>
       </c>
       <c r="K20">
-        <v>82.5</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1191,10 +1192,10 @@
         <v>73.900000000000006</v>
       </c>
       <c r="J21">
-        <v>71.599999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="K21">
-        <v>73.900000000000006</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1226,10 +1227,10 @@
         <v>72.900000000000006</v>
       </c>
       <c r="J22">
-        <v>71</v>
+        <v>72.8</v>
       </c>
       <c r="K22">
-        <v>72.8</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1261,10 +1262,10 @@
         <v>72.5</v>
       </c>
       <c r="J23">
-        <v>71.2</v>
+        <v>72.3</v>
       </c>
       <c r="K23">
-        <v>71.8</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1296,10 +1297,10 @@
         <v>71.7</v>
       </c>
       <c r="J24">
-        <v>69.599999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="K24">
-        <v>71.5</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1331,10 +1332,10 @@
         <v>72</v>
       </c>
       <c r="J25">
-        <v>70.599999999999994</v>
+        <v>71.7</v>
       </c>
       <c r="K25">
-        <v>72</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1366,10 +1367,10 @@
         <v>70.3</v>
       </c>
       <c r="J26">
-        <v>68.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="K26">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1401,10 +1402,10 @@
         <v>71.3</v>
       </c>
       <c r="J27">
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>70.2</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1436,10 +1437,10 @@
         <v>71.8</v>
       </c>
       <c r="J28">
-        <v>69.599999999999994</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>70.7</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1471,10 +1472,10 @@
         <v>71.900000000000006</v>
       </c>
       <c r="J29">
-        <v>70.099999999999994</v>
+        <v>71.8</v>
       </c>
       <c r="K29">
-        <v>71.8</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1506,10 +1507,10 @@
         <v>71.400000000000006</v>
       </c>
       <c r="J30">
-        <v>70.2</v>
+        <v>71.3</v>
       </c>
       <c r="K30">
-        <v>71.8</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1541,10 +1542,10 @@
         <v>71.099999999999994</v>
       </c>
       <c r="J31">
-        <v>69.8</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>71.099999999999994</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1576,10 +1577,10 @@
         <v>70.900000000000006</v>
       </c>
       <c r="J32">
-        <v>68.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>69.7</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1611,10 +1612,10 @@
         <v>71.599999999999994</v>
       </c>
       <c r="J33">
-        <v>68</v>
+        <v>69.3</v>
       </c>
       <c r="K33">
-        <v>69.3</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1646,10 +1647,10 @@
         <v>75.2</v>
       </c>
       <c r="J34">
-        <v>74.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="K34">
-        <v>76.2</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1681,10 +1682,10 @@
         <v>71.7</v>
       </c>
       <c r="J35">
-        <v>69.8</v>
+        <v>70.8</v>
       </c>
       <c r="K35">
-        <v>70.900000000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1716,10 +1717,10 @@
         <v>68.8</v>
       </c>
       <c r="J36">
-        <v>67.099999999999994</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="K36">
-        <v>68.3</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1751,10 +1752,10 @@
         <v>70</v>
       </c>
       <c r="J37">
-        <v>67.8</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="K37">
-        <v>68.900000000000006</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1786,10 +1787,10 @@
         <v>70.099999999999994</v>
       </c>
       <c r="J38">
-        <v>71</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="K38">
-        <v>72.099999999999994</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1821,10 +1822,10 @@
         <v>70.099999999999994</v>
       </c>
       <c r="J39">
-        <v>69.3</v>
+        <v>70.2</v>
       </c>
       <c r="K39">
-        <v>70.5</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1856,10 +1857,10 @@
         <v>64.5</v>
       </c>
       <c r="J40">
-        <v>62.9</v>
+        <v>63.5</v>
       </c>
       <c r="K40">
-        <v>63.8</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1891,10 +1892,10 @@
         <v>70.7</v>
       </c>
       <c r="J41">
-        <v>69.599999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="K41">
-        <v>70.599999999999994</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1926,10 +1927,10 @@
         <v>72.2</v>
       </c>
       <c r="J42">
-        <v>68.8</v>
+        <v>70.2</v>
       </c>
       <c r="K42">
-        <v>70.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1961,10 +1962,10 @@
         <v>72</v>
       </c>
       <c r="J43">
-        <v>71.5</v>
+        <v>72.3</v>
       </c>
       <c r="K43">
-        <v>72.3</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1996,10 +1997,10 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J44">
-        <v>69.2</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="K44">
-        <v>71.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2031,10 +2032,10 @@
         <v>77.400000000000006</v>
       </c>
       <c r="J45">
-        <v>77.900000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="K45">
-        <v>80.099999999999994</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2066,10 +2067,10 @@
         <v>80.8</v>
       </c>
       <c r="J46">
-        <v>82</v>
+        <v>83.5</v>
       </c>
       <c r="K46">
-        <v>83.1</v>
+        <v>73.400000000000006</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2101,10 +2102,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="J47">
-        <v>68.5</v>
+        <v>70.3</v>
       </c>
       <c r="K47">
-        <v>70.400000000000006</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2136,10 +2137,10 @@
         <v>74.7</v>
       </c>
       <c r="J48">
-        <v>72</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="K48">
-        <v>74.099999999999994</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2171,10 +2172,10 @@
         <v>73</v>
       </c>
       <c r="J49">
-        <v>71.900000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="K49">
-        <v>73.2</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2206,10 +2207,10 @@
         <v>82.9</v>
       </c>
       <c r="J50">
-        <v>76.599999999999994</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="K50">
-        <v>77.5</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2241,10 +2242,10 @@
         <v>70.8</v>
       </c>
       <c r="J51">
-        <v>67.900000000000006</v>
+        <v>69.3</v>
       </c>
       <c r="K51">
-        <v>69.3</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2276,10 +2277,10 @@
         <v>68.3</v>
       </c>
       <c r="J52">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="K52">
-        <v>69.400000000000006</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2311,10 +2312,10 @@
         <v>77.599999999999994</v>
       </c>
       <c r="J53">
-        <v>68.599999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="K53">
-        <v>71.099999999999994</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2346,10 +2347,10 @@
         <v>70.5</v>
       </c>
       <c r="J54">
-        <v>69.7</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>70.7</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2381,10 +2382,10 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J55">
-        <v>70.400000000000006</v>
+        <v>71.8</v>
       </c>
       <c r="K55">
-        <v>71.3</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2416,10 +2417,10 @@
         <v>72</v>
       </c>
       <c r="J56">
-        <v>70.099999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="K56">
-        <v>71.3</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2428,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:K2" formulaRange="1"/>
+    <ignoredError sqref="J2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>